--- a/Mortality_table.xlsx
+++ b/Mortality_table.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tairhadad\Desktop\סמי שמעון\שנה ד\סמסטר ב\ישומי כלכלה\CompensationHW\CompensationHW\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EE318-E673-4275-A3BD-3C628C89EEA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="9435" windowHeight="5895"/>
+    <workbookView xWindow="10584" yWindow="168" windowWidth="14952" windowHeight="9372" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גברים" sheetId="1" r:id="rId1"/>
     <sheet name="נשים" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -35,24 +41,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -151,15 +157,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Comma 2" xfId="7"/>
-    <cellStyle name="Comma 3" xfId="8"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Percent 2" xfId="6"/>
-    <cellStyle name="Percent 3" xfId="4"/>
-    <cellStyle name="Percent 4" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Percent 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Percent 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Percent 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,12 +173,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +256,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,6 +308,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,19 +500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75">
+    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>18</v>
       </c>
@@ -503,7 +546,7 @@
         <v>1.4005499999998456E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75">
+    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>19</v>
       </c>
@@ -521,7 +564,7 @@
       </c>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="2:8" ht="15.75">
+    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>20</v>
       </c>
@@ -539,7 +582,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="2:8" ht="15.75">
+    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>21</v>
       </c>
@@ -557,7 +600,7 @@
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="2:8" ht="15.75">
+    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>22</v>
       </c>
@@ -575,7 +618,7 @@
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>23</v>
       </c>
@@ -593,7 +636,7 @@
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75">
+    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>24</v>
       </c>
@@ -611,7 +654,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="2:8" ht="15.75">
+    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>25</v>
       </c>
@@ -629,7 +672,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" ht="15.75">
+    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>26</v>
       </c>
@@ -647,7 +690,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="2:8" ht="15.75">
+    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>27</v>
       </c>
@@ -665,7 +708,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="2:8" ht="15.75">
+    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>28</v>
       </c>
@@ -683,7 +726,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="2:8" ht="15.75">
+    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>29</v>
       </c>
@@ -701,7 +744,7 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="2:8" ht="15.75">
+    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>30</v>
       </c>
@@ -719,7 +762,7 @@
       </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="2:8" ht="15.75">
+    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>31</v>
       </c>
@@ -737,7 +780,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75">
+    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>32</v>
       </c>
@@ -755,7 +798,7 @@
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="2:8" ht="15.75">
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>33</v>
       </c>
@@ -773,7 +816,7 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="2:8" ht="15.75">
+    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>34</v>
       </c>
@@ -791,7 +834,7 @@
       </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>35</v>
       </c>
@@ -809,7 +852,7 @@
       </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75">
+    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>36</v>
       </c>
@@ -827,7 +870,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75">
+    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>37</v>
       </c>
@@ -845,7 +888,7 @@
       </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="2:8" ht="15.75">
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>38</v>
       </c>
@@ -863,7 +906,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:8" ht="15.75">
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>39</v>
       </c>
@@ -881,7 +924,7 @@
       </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="2:8" ht="15.75">
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>40</v>
       </c>
@@ -899,7 +942,7 @@
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="2:8" ht="15.75">
+    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>41</v>
       </c>
@@ -917,7 +960,7 @@
       </c>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75">
+    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>42</v>
       </c>
@@ -935,7 +978,7 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="2:8" ht="15.75">
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>43</v>
       </c>
@@ -953,7 +996,7 @@
       </c>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75">
+    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>44</v>
       </c>
@@ -971,7 +1014,7 @@
       </c>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="2:8" ht="15.75">
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>45</v>
       </c>
@@ -989,7 +1032,7 @@
       </c>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="2:8" ht="15.75">
+    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>46</v>
       </c>
@@ -1007,7 +1050,7 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="2:8" ht="15.75">
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>47</v>
       </c>
@@ -1025,7 +1068,7 @@
       </c>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75">
+    <row r="33" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>48</v>
       </c>
@@ -1043,7 +1086,7 @@
       </c>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75">
+    <row r="34" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>49</v>
       </c>
@@ -1061,7 +1104,7 @@
       </c>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75">
+    <row r="35" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>50</v>
       </c>
@@ -1079,7 +1122,7 @@
       </c>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="2:8" ht="15.75">
+    <row r="36" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>51</v>
       </c>
@@ -1097,7 +1140,7 @@
       </c>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75">
+    <row r="37" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>52</v>
       </c>
@@ -1115,7 +1158,7 @@
       </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="2:8" ht="15.75">
+    <row r="38" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>53</v>
       </c>
@@ -1133,7 +1176,7 @@
       </c>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="2:8" ht="15.75">
+    <row r="39" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>54</v>
       </c>
@@ -1151,7 +1194,7 @@
       </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75">
+    <row r="40" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>55</v>
       </c>
@@ -1169,7 +1212,7 @@
       </c>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="2:8" ht="15.75">
+    <row r="41" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>56</v>
       </c>
@@ -1187,7 +1230,7 @@
       </c>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="2:8" ht="15.75">
+    <row r="42" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>57</v>
       </c>
@@ -1205,7 +1248,7 @@
       </c>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="2:8" ht="15.75">
+    <row r="43" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>58</v>
       </c>
@@ -1223,7 +1266,7 @@
       </c>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="2:8" ht="15.75">
+    <row r="44" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>59</v>
       </c>
@@ -1241,7 +1284,7 @@
       </c>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="2:8" ht="15.75">
+    <row r="45" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>60</v>
       </c>
@@ -1259,7 +1302,7 @@
       </c>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="2:8" ht="15.75">
+    <row r="46" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>61</v>
       </c>
@@ -1277,7 +1320,7 @@
       </c>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="2:8" ht="15.75">
+    <row r="47" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>62</v>
       </c>
@@ -1295,7 +1338,7 @@
       </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="2:8" ht="15.75">
+    <row r="48" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>63</v>
       </c>
@@ -1313,7 +1356,7 @@
       </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="2:8" ht="15.75">
+    <row r="49" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>64</v>
       </c>
@@ -1331,7 +1374,7 @@
       </c>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="2:8" ht="15.75">
+    <row r="50" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>65</v>
       </c>
@@ -1349,7 +1392,7 @@
       </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75">
+    <row r="51" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>66</v>
       </c>
@@ -1367,7 +1410,7 @@
       </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75">
+    <row r="52" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>67</v>
       </c>
@@ -1385,7 +1428,7 @@
       </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="2:8" ht="15.75">
+    <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>68</v>
       </c>
@@ -1403,7 +1446,7 @@
       </c>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="2:8" ht="15.75">
+    <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>69</v>
       </c>
@@ -1421,7 +1464,7 @@
       </c>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="2:8" ht="15.75">
+    <row r="55" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>70</v>
       </c>
@@ -1439,7 +1482,7 @@
       </c>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="2:8" ht="15.75">
+    <row r="56" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>71</v>
       </c>
@@ -1457,7 +1500,7 @@
       </c>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="2:8" ht="15.75">
+    <row r="57" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>72</v>
       </c>
@@ -1475,7 +1518,7 @@
       </c>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="2:8" ht="15.75">
+    <row r="58" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>73</v>
       </c>
@@ -1493,7 +1536,7 @@
       </c>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75">
+    <row r="59" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>74</v>
       </c>
@@ -1511,7 +1554,7 @@
       </c>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="2:8" ht="15.75">
+    <row r="60" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>75</v>
       </c>
@@ -1529,7 +1572,7 @@
       </c>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="2:8" ht="15.75">
+    <row r="61" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>76</v>
       </c>
@@ -1547,7 +1590,7 @@
       </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="2:8" ht="15.75">
+    <row r="62" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>77</v>
       </c>
@@ -1565,7 +1608,7 @@
       </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="2:8" ht="15.75">
+    <row r="63" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>78</v>
       </c>
@@ -1583,7 +1626,7 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="2:8" ht="15.75">
+    <row r="64" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>79</v>
       </c>
@@ -1601,7 +1644,7 @@
       </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75">
+    <row r="65" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>80</v>
       </c>
@@ -1619,7 +1662,7 @@
       </c>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75">
+    <row r="66" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>81</v>
       </c>
@@ -1637,7 +1680,7 @@
       </c>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="2:8" ht="15.75">
+    <row r="67" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>82</v>
       </c>
@@ -1655,7 +1698,7 @@
       </c>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="2:8" ht="15.75">
+    <row r="68" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>83</v>
       </c>
@@ -1673,7 +1716,7 @@
       </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="2:8" ht="15.75">
+    <row r="69" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>84</v>
       </c>
@@ -1691,7 +1734,7 @@
       </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="2:8" ht="15.75">
+    <row r="70" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>85</v>
       </c>
@@ -1709,7 +1752,7 @@
       </c>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75">
+    <row r="71" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>86</v>
       </c>
@@ -1727,7 +1770,7 @@
       </c>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="2:8" ht="15.75">
+    <row r="72" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>87</v>
       </c>
@@ -1745,7 +1788,7 @@
       </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="2:8" ht="15.75">
+    <row r="73" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>88</v>
       </c>
@@ -1763,7 +1806,7 @@
       </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="2:8" ht="15.75">
+    <row r="74" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>89</v>
       </c>
@@ -1781,7 +1824,7 @@
       </c>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="2:8" ht="15.75">
+    <row r="75" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>90</v>
       </c>
@@ -1799,7 +1842,7 @@
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="2:8" ht="15.75">
+    <row r="76" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>91</v>
       </c>
@@ -1817,7 +1860,7 @@
       </c>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="2:8" ht="15.75">
+    <row r="77" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>92</v>
       </c>
@@ -1835,7 +1878,7 @@
       </c>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75">
+    <row r="78" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>93</v>
       </c>
@@ -1853,7 +1896,7 @@
       </c>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="2:8" ht="15.75">
+    <row r="79" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>94</v>
       </c>
@@ -1871,7 +1914,7 @@
       </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="2:8" ht="15.75">
+    <row r="80" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>95</v>
       </c>
@@ -1889,7 +1932,7 @@
       </c>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="2:8" ht="15.75">
+    <row r="81" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>96</v>
       </c>
@@ -1907,7 +1950,7 @@
       </c>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="2:8" ht="15.75">
+    <row r="82" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>97</v>
       </c>
@@ -1925,7 +1968,7 @@
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="2:8" ht="15.75">
+    <row r="83" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>98</v>
       </c>
@@ -1943,7 +1986,7 @@
       </c>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="2:8" ht="15.75">
+    <row r="84" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>99</v>
       </c>
@@ -1961,7 +2004,7 @@
       </c>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="2:8" ht="15.75">
+    <row r="85" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>100</v>
       </c>
@@ -1979,7 +2022,7 @@
       </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75">
+    <row r="86" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>101</v>
       </c>
@@ -1997,7 +2040,7 @@
       </c>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="2:8" ht="15.75">
+    <row r="87" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>102</v>
       </c>
@@ -2015,7 +2058,7 @@
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="2:8" ht="15.75">
+    <row r="88" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>103</v>
       </c>
@@ -2033,7 +2076,7 @@
       </c>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="2:8" ht="15.75">
+    <row r="89" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>104</v>
       </c>
@@ -2051,7 +2094,7 @@
       </c>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="2:8" ht="15.75">
+    <row r="90" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>105</v>
       </c>
@@ -2069,7 +2112,7 @@
       </c>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="2:8" ht="15.75">
+    <row r="91" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>106</v>
       </c>
@@ -2087,7 +2130,7 @@
       </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="2:8" ht="15.75">
+    <row r="92" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>107</v>
       </c>
@@ -2105,7 +2148,7 @@
       </c>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="2:8" ht="15.75">
+    <row r="93" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>108</v>
       </c>
@@ -2123,7 +2166,7 @@
       </c>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="2:8" ht="15.75">
+    <row r="94" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>109</v>
       </c>
@@ -2141,7 +2184,7 @@
       </c>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="2:8" ht="15.75">
+    <row r="95" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>110</v>
       </c>
@@ -2159,7 +2202,7 @@
       </c>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H96" s="11"/>
     </row>
   </sheetData>
@@ -2169,19 +2212,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75">
+    <row r="3" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
         <v>18</v>
       </c>
@@ -2215,7 +2258,7 @@
         <v>4.4904000000044909E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15.75">
+    <row r="4" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>19</v>
       </c>
@@ -2232,7 +2275,7 @@
         <v>4.8646000000048648E-5</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75">
+    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>20</v>
       </c>
@@ -2249,7 +2292,7 @@
         <v>5.1452500000025495E-5</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="15.75">
+    <row r="6" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>21</v>
       </c>
@@ -2266,7 +2309,7 @@
         <v>5.5194500000029234E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="15.75">
+    <row r="7" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>22</v>
       </c>
@@ -2283,7 +2326,7 @@
         <v>5.8936500000032974E-5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75">
+    <row r="8" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>23</v>
       </c>
@@ -2300,7 +2343,7 @@
         <v>6.267850000003672E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75">
+    <row r="9" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
         <v>24</v>
       </c>
@@ -2317,7 +2360,7 @@
         <v>6.64204999999366E-5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75">
+    <row r="10" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>25</v>
       </c>
@@ -2334,7 +2377,7 @@
         <v>7.1097999999967246E-5</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="15.75">
+    <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>26</v>
       </c>
@@ -2351,7 +2394,7 @@
         <v>7.5775499999997892E-5</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="15.75">
+    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
         <v>27</v>
       </c>
@@ -2368,7 +2411,7 @@
         <v>7.9517500000001625E-5</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.75">
+    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>28</v>
       </c>
@@ -2385,7 +2428,7 @@
         <v>8.2323999999874605E-5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75">
+    <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>29</v>
       </c>
@@ -2402,7 +2445,7 @@
         <v>8.5130499999955305E-5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.75">
+    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>30</v>
       </c>
@@ -2419,7 +2462,7 @@
         <v>8.8872499999855198E-5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.75">
+    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>31</v>
       </c>
@@ -2436,7 +2479,7 @@
         <v>9.2614499999962797E-5</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75">
+    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>32</v>
       </c>
@@ -2453,7 +2496,7 @@
         <v>9.6356499999966544E-5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75">
+    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="7">
         <v>33</v>
       </c>
@@ -2470,7 +2513,7 @@
         <v>1.0196950000002408E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75">
+    <row r="19" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>34</v>
       </c>
@@ -2487,7 +2530,7 @@
         <v>1.0758249999997777E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75">
+    <row r="20" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>35</v>
       </c>
@@ -2504,7 +2547,7 @@
         <v>1.1413099999995835E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75">
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
         <v>36</v>
       </c>
@@ -2521,7 +2564,7 @@
         <v>1.2255049999999274E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75">
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>37</v>
       </c>
@@ -2538,7 +2581,7 @@
         <v>1.3284099999997707E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75">
+    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>38</v>
       </c>
@@ -2555,7 +2598,7 @@
         <v>1.4406699999998829E-4</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75">
+    <row r="24" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>39</v>
       </c>
@@ -2572,7 +2615,7 @@
         <v>1.5809949999987248E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75">
+    <row r="25" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>40</v>
       </c>
@@ -2589,7 +2632,7 @@
         <v>1.7306749999999134E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75">
+    <row r="26" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>41</v>
       </c>
@@ -2606,7 +2649,7 @@
         <v>1.9247450000001008E-4</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75">
+    <row r="27" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="7">
         <v>42</v>
       </c>
@@ -2623,7 +2666,7 @@
         <v>2.1275639999995149E-4</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75">
+    <row r="28" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>43</v>
       </c>
@@ -2640,7 +2683,7 @@
         <v>2.3666790000000115E-4</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75">
+    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>44</v>
       </c>
@@ -2657,7 +2700,7 @@
         <v>2.6226520000000047E-4</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75">
+    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>45</v>
       </c>
@@ -2674,7 +2717,7 @@
         <v>2.9058360000000348E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75">
+    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>46</v>
       </c>
@@ -2691,7 +2734,7 @@
         <v>3.2239679999990624E-4</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75">
+    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
         <v>47</v>
       </c>
@@ -2708,7 +2751,7 @@
         <v>3.5686439999989018E-4</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75">
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
         <v>48</v>
       </c>
@@ -2725,7 +2768,7 @@
         <v>3.9495599999998132E-4</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.75">
+    <row r="34" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
         <v>49</v>
       </c>
@@ -2742,7 +2785,7 @@
         <v>4.3681799999986936E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.75">
+    <row r="35" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>50</v>
       </c>
@@ -2759,7 +2802,7 @@
         <v>4.8255999999996746E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.75">
+    <row r="36" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>51</v>
       </c>
@@ -2776,7 +2819,7 @@
         <v>5.3342749999988975E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.75">
+    <row r="37" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>52</v>
       </c>
@@ -2793,7 +2836,7 @@
         <v>5.8860560000002175E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.75">
+    <row r="38" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>53</v>
       </c>
@@ -2810,7 +2853,7 @@
         <v>6.5013990000000485E-4</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15.75">
+    <row r="39" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
         <v>54</v>
       </c>
@@ -2827,7 +2870,7 @@
         <v>7.1592959999999155E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15.75">
+    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="7">
         <v>55</v>
       </c>
@@ -2844,7 +2887,7 @@
         <v>7.8803640000003569E-4</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.75">
+    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="7">
         <v>56</v>
       </c>
@@ -2861,7 +2904,7 @@
         <v>8.6540480000000673E-4</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15.75">
+    <row r="42" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>57</v>
       </c>
@@ -2878,7 +2921,7 @@
         <v>9.4916630000003543E-4</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="15.75">
+    <row r="43" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="7">
         <v>58</v>
       </c>
@@ -2895,7 +2938,7 @@
         <v>1.0395642000000176E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="15.75">
+    <row r="44" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="7">
         <v>59</v>
       </c>
@@ -2912,7 +2955,7 @@
         <v>1.1367718999999528E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15.75">
+    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="7">
         <v>60</v>
       </c>
@@ -2929,7 +2972,7 @@
         <v>1.2404952000000789E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15.75">
+    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="7">
         <v>61</v>
       </c>
@@ -2946,7 +2989,7 @@
         <v>1.3500515000000525E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15.75">
+    <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="7">
         <v>62</v>
       </c>
@@ -2963,7 +3006,7 @@
         <v>1.4658546000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15.75">
+    <row r="48" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="7">
         <v>63</v>
       </c>
@@ -2980,7 +3023,7 @@
         <v>1.5865775E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15.75">
+    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="7">
         <v>64</v>
       </c>
@@ -2997,7 +3040,7 @@
         <v>2.7230984999998768E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15.75">
+    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="7">
         <v>65</v>
       </c>
@@ -3014,7 +3057,7 @@
         <v>3.1320939999999915E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="15.75">
+    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>66</v>
       </c>
@@ -3031,7 +3074,7 @@
         <v>3.6419021999999691E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="15.75">
+    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <v>67</v>
       </c>
@@ -3048,7 +3091,7 @@
         <v>4.2318527999999763E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="15.75">
+    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <v>68</v>
       </c>
@@ -3065,7 +3108,7 @@
         <v>4.9118372000001307E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:8" ht="15.75">
+    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <v>69</v>
       </c>
@@ -3082,7 +3125,7 @@
         <v>5.698601999999971E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:8" ht="15.75">
+    <row r="55" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <v>70</v>
       </c>
@@ -3099,7 +3142,7 @@
         <v>6.6061085999998591E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:8" ht="15.75">
+    <row r="56" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <v>71</v>
       </c>
@@ -3116,7 +3159,7 @@
         <v>7.6515249999998961E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:8" ht="15.75">
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="7">
         <v>72</v>
       </c>
@@ -3133,7 +3176,7 @@
         <v>8.8479049999998661E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15.75">
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <v>73</v>
       </c>
@@ -3150,7 +3193,7 @@
         <v>1.0303008999999986E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:8" ht="15.75">
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <v>74</v>
       </c>
@@ -3167,7 +3210,7 @@
         <v>1.1900004000000018E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="15.75">
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="7">
         <v>75</v>
       </c>
@@ -3184,7 +3227,7 @@
         <v>1.3842246599999958E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="15.75">
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <v>76</v>
       </c>
@@ -3201,7 +3244,7 @@
         <v>1.5746457600000041E-2</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="15.75">
+    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <v>77</v>
       </c>
@@ -3218,7 +3261,7 @@
         <v>1.8051546600000017E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15.75">
+    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="7">
         <v>78</v>
       </c>
@@ -3234,12 +3277,8 @@
       <c r="F63" s="9">
         <v>2.0694306399999998E-2</v>
       </c>
-      <c r="H63">
-        <f>C63/C32</f>
-        <v>0.8758749175903191</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="15.75">
+    </row>
+    <row r="64" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="7">
         <v>79</v>
       </c>
@@ -3256,7 +3295,7 @@
         <v>2.3737232000000004E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15.75">
+    <row r="65" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
         <v>80</v>
       </c>
@@ -3273,7 +3312,7 @@
         <v>2.7246659199999919E-2</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.75">
+    <row r="66" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
         <v>81</v>
       </c>
@@ -3290,7 +3329,7 @@
         <v>3.159574239999996E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.75">
+    <row r="67" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <v>82</v>
       </c>
@@ -3307,7 +3346,7 @@
         <v>3.665087999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.75">
+    <row r="68" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="7">
         <v>83</v>
       </c>
@@ -3324,7 +3363,7 @@
         <v>4.2533104899999868E-2</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.75">
+    <row r="69" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <v>84</v>
       </c>
@@ -3341,7 +3380,7 @@
         <v>4.9292566200000061E-2</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15.75">
+    <row r="70" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="7">
         <v>85</v>
       </c>
@@ -3358,7 +3397,7 @@
         <v>5.7018663199999972E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.75">
+    <row r="71" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B71" s="7">
         <v>86</v>
       </c>
@@ -3375,7 +3414,7 @@
         <v>6.5776552199999991E-2</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.75">
+    <row r="72" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <v>87</v>
       </c>
@@ -3392,7 +3431,7 @@
         <v>7.5662856400000048E-2</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.75">
+    <row r="73" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="7">
         <v>88</v>
       </c>
@@ -3409,7 +3448,7 @@
         <v>8.6745938999999966E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.75">
+    <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B74" s="7">
         <v>89</v>
       </c>
@@ -3426,7 +3465,7 @@
         <v>9.9229420500000026E-2</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.75">
+    <row r="75" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B75" s="7">
         <v>90</v>
       </c>
@@ -3443,7 +3482,7 @@
         <v>0.11319565749999996</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15.75">
+    <row r="76" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B76" s="7">
         <v>91</v>
       </c>
@@ -3460,7 +3499,7 @@
         <v>0.12699698700000001</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15.75">
+    <row r="77" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
         <v>92</v>
       </c>
@@ -3477,7 +3516,7 @@
         <v>0.14223760279999997</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15.75">
+    <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
         <v>93</v>
       </c>
@@ -3494,7 +3533,7 @@
         <v>0.15905042400000005</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.75">
+    <row r="79" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="7">
         <v>94</v>
       </c>
@@ -3511,7 +3550,7 @@
         <v>0.17749792200000006</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15.75">
+    <row r="80" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B80" s="7">
         <v>95</v>
       </c>
@@ -3528,7 +3567,7 @@
         <v>0.19774522530000005</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.75">
+    <row r="81" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B81" s="7">
         <v>96</v>
       </c>
@@ -3545,7 +3584,7 @@
         <v>0.21982286109999985</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="15.75">
+    <row r="82" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B82" s="7">
         <v>97</v>
       </c>
@@ -3562,7 +3601,7 @@
         <v>0.24501680150000005</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15.75">
+    <row r="83" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B83" s="7">
         <v>98</v>
       </c>
@@ -3579,7 +3618,7 @@
         <v>0.26807880439999993</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="15.75">
+    <row r="84" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B84" s="7">
         <v>99</v>
       </c>
@@ -3596,7 +3635,7 @@
         <v>0.28461353759999991</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="15.75">
+    <row r="85" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B85" s="7">
         <v>100</v>
       </c>
@@ -3613,7 +3652,7 @@
         <v>0.30216248159999998</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15.75">
+    <row r="86" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B86" s="7">
         <v>101</v>
       </c>
@@ -3630,7 +3669,7 @@
         <v>0.32082125690000002</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15.75">
+    <row r="87" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B87" s="7">
         <v>102</v>
       </c>
@@ -3647,7 +3686,7 @@
         <v>0.34059136769999993</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="15.75">
+    <row r="88" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B88" s="7">
         <v>103</v>
       </c>
@@ -3664,7 +3703,7 @@
         <v>0.36157433130000005</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.75">
+    <row r="89" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B89" s="7">
         <v>104</v>
       </c>
@@ -3681,7 +3720,7 @@
         <v>0.38388230400000001</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="15.75">
+    <row r="90" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B90" s="7">
         <v>105</v>
       </c>
@@ -3698,7 +3737,7 @@
         <v>0.40751899999999996</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="15.75">
+    <row r="91" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B91" s="7">
         <v>106</v>
       </c>
@@ -3715,7 +3754,7 @@
         <v>0.43087999999999993</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="15.75">
+    <row r="92" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B92" s="7">
         <v>107</v>
       </c>
@@ -3732,7 +3771,7 @@
         <v>0.45557999999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="15.75">
+    <row r="93" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B93" s="7">
         <v>108</v>
       </c>
@@ -3749,7 +3788,7 @@
         <v>0.48169700000000004</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="15.75">
+    <row r="94" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B94" s="7">
         <v>109</v>
       </c>
@@ -3766,7 +3805,7 @@
         <v>0.50931099999999996</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="15.75">
+    <row r="95" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B95" s="7">
         <v>110</v>
       </c>
